--- a/backend/dataset/大盘行业分析，宏观分析.xlsx
+++ b/backend/dataset/大盘行业分析，宏观分析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macxin/Downloads/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B586ABE-DE21-6F4A-A542-EDA625CEDF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90796FA7-FC02-A741-B0C9-0BEBA1FF7D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="1860" windowWidth="27300" windowHeight="16360" xr2:uid="{4265BF30-35BA-344F-8B33-C3D0E8A2833D}"/>
   </bookViews>
@@ -71,24 +71,53 @@
     <t>美国今天的CPI数据会超预期吗</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
+    <t>是</t>
+  </si>
+  <si>
+    <t>分析-大盘行业分析</t>
+  </si>
+  <si>
+    <t>分析今日a股走势</t>
+  </si>
+  <si>
+    <t>财政赤字加剧对美股影响</t>
+  </si>
+  <si>
+    <t>未来五年房地产行业发展会怎样</t>
+  </si>
+  <si>
+    <t>央行5月23日将开展5000亿元MLF操作，释放什么信号？</t>
+  </si>
+  <si>
+    <t>如果中美贸易关系缓和.对于股票和市场影响如何</t>
+  </si>
+  <si>
+    <t>港股涨了的话，对A股有影响吗？</t>
+  </si>
+  <si>
+    <t>美股大跌A股会怎么样走</t>
+  </si>
+  <si>
+    <t>从人口老龄化角度看，医疗行业估值是否是历史性的大机遇</t>
+  </si>
+  <si>
+    <t>问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户体验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>逻辑不顺：</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">用户问的是今日CPI数据，开头应该给出用户今日美国不会公布CPI，而是下周三才会公布
 </t>
@@ -98,9 +127,8 @@
         <b/>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>用户体验：</t>
     </r>
@@ -108,31 +136,47 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>无影响板块视窗</t>
     </r>
   </si>
   <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>分析-大盘行业分析</t>
-  </si>
-  <si>
-    <t>分析今日a股走势</t>
-  </si>
-  <si>
+    <r>
+      <t>用户体验：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>涉及的板块或者标的无视窗</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>逻辑不顺：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">中期、长期影响未涉及到提问中的美股，回答的是不相关的领域，答非所问
+</t>
+    </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>用户体验：</t>
     </r>
@@ -140,61 +184,22 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>涉及的板块或者标的无视窗</t>
     </r>
   </si>
   <si>
-    <t>财政赤字加剧对美股影响</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>逻辑不顺：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中期、长期影响未涉及到提问中的美股，回答的是不相关的领域，答非所问</t>
-    </r>
-  </si>
-  <si>
-    <t>未来五年房地产行业发展会怎样</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
+    <r>
       <t>内容不够完整：</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">证券业务的用户应该对房地产板块的未来趋势进行展望，而非全是偏行业宏观类
 </t>
@@ -204,9 +209,8 @@
         <b/>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>用户体验：</t>
     </r>
@@ -214,35 +218,22 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>涉及的板块或者标的无视窗</t>
     </r>
   </si>
   <si>
-    <t>央行5月23日将开展5000亿元MLF操作，释放什么信号？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
+    <r>
       <t>逻辑不顺：</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">开头提出净投放3750亿元，用户提问的是5000亿会有些迷惑，应该给出说明5000亿的构成为1250亿元续期+3750亿净投放
 </t>
@@ -252,9 +243,8 @@
         <b/>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>内容不够完整：</t>
     </r>
@@ -262,41 +252,42 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>证券业务的用户应该对相关板块的影响进行说明，而非全是偏行业宏观类</t>
-    </r>
-  </si>
-  <si>
-    <t>如果中美贸易关系缓和.对于股票和市场影响如何</t>
-  </si>
-  <si>
-    <t>港股涨了的话，对A股有影响吗？</t>
-  </si>
-  <si>
-    <t>美股大跌A股会怎么样走</t>
-  </si>
-  <si>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">证券业务的用户应该对相关板块的影响进行说明，而非全是偏行业宏观类
+</t>
+    </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>用户体验：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>历史的MLF数据可以用表格等形式更好的展示，而非全文字</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>逻辑不顺：第二部分的</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">中期缓冲力量与该提问无关
 </t>
@@ -306,9 +297,8 @@
         <b/>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>用户体验：</t>
     </r>
@@ -316,35 +306,22 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>涉及的板块或者标的无视窗</t>
     </r>
   </si>
   <si>
-    <t>从人口老龄化角度看，医疗行业估值是否是历史性的大机遇</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
+    <r>
       <t>逻辑不顺：</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">第一部分的技术与政策双重赋能与该提问无关
 </t>
@@ -354,9 +331,8 @@
         <b/>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>用户体验：</t>
     </r>
@@ -364,27 +340,18 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>涉及的板块或者标的无视窗</t>
     </r>
-  </si>
-  <si>
-    <t>问题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户体验</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -422,17 +389,31 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -489,7 +470,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -498,32 +479,32 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -862,7 +843,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="E2" sqref="E2:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -878,7 +859,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -893,7 +874,7 @@
         <v>8</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>0</v>
@@ -915,31 +896,31 @@
       <c r="D2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="12">
-        <v>2</v>
-      </c>
-      <c r="F2" s="12">
-        <v>2</v>
-      </c>
-      <c r="G2" s="12">
+      <c r="E2" s="13">
+        <v>2</v>
+      </c>
+      <c r="F2" s="13">
+        <v>2</v>
+      </c>
+      <c r="G2" s="13">
         <v>1</v>
       </c>
       <c r="H2" s="13">
         <v>1</v>
       </c>
       <c r="I2" s="13">
-        <v>0</v>
-      </c>
-      <c r="J2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>11</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6">
         <v>45733</v>
@@ -947,29 +928,29 @@
       <c r="C3" s="5">
         <v>45813</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="12">
-        <v>2</v>
-      </c>
-      <c r="F3" s="12">
-        <v>2</v>
-      </c>
-      <c r="G3" s="12">
+      <c r="D3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="13">
+        <v>2</v>
+      </c>
+      <c r="F3" s="13">
+        <v>2</v>
+      </c>
+      <c r="G3" s="13">
         <v>2</v>
       </c>
       <c r="H3" s="13">
         <v>2</v>
       </c>
       <c r="I3" s="13">
-        <v>0</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -982,29 +963,29 @@
       <c r="C4" s="5">
         <v>45813</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="12">
-        <v>2</v>
-      </c>
-      <c r="F4" s="12">
-        <v>2</v>
-      </c>
-      <c r="G4" s="12">
+      <c r="D4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="13">
+        <v>2</v>
+      </c>
+      <c r="F4" s="13">
+        <v>2</v>
+      </c>
+      <c r="G4" s="13">
         <v>1</v>
       </c>
       <c r="H4" s="13">
         <v>1</v>
       </c>
       <c r="I4" s="13">
-        <v>0</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1018,28 +999,28 @@
         <v>45813</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="12">
-        <v>2</v>
-      </c>
-      <c r="F5" s="12">
-        <v>2</v>
-      </c>
-      <c r="G5" s="12">
+        <v>15</v>
+      </c>
+      <c r="E5" s="13">
+        <v>2</v>
+      </c>
+      <c r="F5" s="13">
+        <v>2</v>
+      </c>
+      <c r="G5" s="13">
         <v>1</v>
       </c>
       <c r="H5" s="13">
         <v>2</v>
       </c>
       <c r="I5" s="13">
-        <v>0</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1053,28 +1034,28 @@
         <v>45813</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="12">
-        <v>2</v>
-      </c>
-      <c r="F6" s="12">
-        <v>2</v>
-      </c>
-      <c r="G6" s="12">
+        <v>16</v>
+      </c>
+      <c r="E6" s="13">
+        <v>2</v>
+      </c>
+      <c r="F6" s="13">
+        <v>2</v>
+      </c>
+      <c r="G6" s="13">
         <v>1</v>
       </c>
       <c r="H6" s="13">
         <v>1</v>
       </c>
       <c r="I6" s="13">
-        <v>0</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1088,33 +1069,33 @@
         <v>45813</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="12">
-        <v>2</v>
-      </c>
-      <c r="F7" s="12">
-        <v>2</v>
-      </c>
-      <c r="G7" s="12">
+        <v>17</v>
+      </c>
+      <c r="E7" s="13">
+        <v>2</v>
+      </c>
+      <c r="F7" s="13">
+        <v>2</v>
+      </c>
+      <c r="G7" s="13">
         <v>2</v>
       </c>
       <c r="H7" s="13">
         <v>2</v>
       </c>
       <c r="I7" s="13">
-        <v>0</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="5">
         <v>45799</v>
@@ -1123,33 +1104,33 @@
         <v>45813</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="12">
-        <v>2</v>
-      </c>
-      <c r="F8" s="12">
-        <v>2</v>
-      </c>
-      <c r="G8" s="12">
+        <v>18</v>
+      </c>
+      <c r="E8" s="13">
+        <v>2</v>
+      </c>
+      <c r="F8" s="13">
+        <v>2</v>
+      </c>
+      <c r="G8" s="13">
         <v>2</v>
       </c>
       <c r="H8" s="13">
         <v>2</v>
       </c>
       <c r="I8" s="13">
-        <v>0</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="5">
         <v>45799</v>
@@ -1158,33 +1139,33 @@
         <v>45813</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="12">
-        <v>2</v>
-      </c>
-      <c r="F9" s="12">
-        <v>2</v>
-      </c>
-      <c r="G9" s="12">
+        <v>19</v>
+      </c>
+      <c r="E9" s="13">
+        <v>2</v>
+      </c>
+      <c r="F9" s="13">
+        <v>2</v>
+      </c>
+      <c r="G9" s="13">
         <v>2</v>
       </c>
       <c r="H9" s="13">
         <v>1</v>
       </c>
       <c r="I9" s="13">
-        <v>0</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="6">
         <v>45798</v>
@@ -1193,39 +1174,33 @@
         <v>45813</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="12">
-        <v>2</v>
-      </c>
-      <c r="F10" s="12">
-        <v>2</v>
-      </c>
-      <c r="G10" s="12">
+        <v>20</v>
+      </c>
+      <c r="E10" s="13">
+        <v>2</v>
+      </c>
+      <c r="F10" s="13">
+        <v>2</v>
+      </c>
+      <c r="G10" s="13">
         <v>2</v>
       </c>
       <c r="H10" s="13">
         <v>1</v>
       </c>
       <c r="I10" s="13">
-        <v>0</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K10" xr:uid="{18FE6F19-2743-0B42-86DD-4C88581A567E}">
-      <formula1>"是,否,"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:I10" xr:uid="{90BE0FFB-2ACB-CA48-A39B-20BD1CDF6758}">
-      <formula1>"0,1,2,"</formula1>
-    </dataValidation>
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A10" xr:uid="{9E2C51D2-617C-4441-91D9-984B3DD677E9}">
       <formula1>"选股-策略选股,选股-概念板块选股,选股-模糊推荐,分析-宏观经济分析,分析-大盘行业分析,个股分析-综合分析,个股分析-基本面分析,个股分析-基本面分析（财务分析）,个股分析-消息面分析,个股分析-异动及涨跌归因,个股分析-资金面分析,个股分析-技术面分析,个股决策-股价预测,个股决策-操作建议,信息查询-百科,无效问题,信息查询- 个股信息,客服帮助及交易,信息查询-通用查询,开户前咨询,"</formula1>
     </dataValidation>
